--- a/module/waapi/waapi_auto_gen_state/Set设置类表.xlsx
+++ b/module/waapi/waapi_auto_gen_state/Set设置类表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="State" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <t>Combat_Boss_State</t>
   </si>
   <si>
-    <t>Boss战_状态</t>
+    <t>Boss战_状态11</t>
   </si>
   <si>
     <t>End</t>
@@ -93,7 +93,7 @@
     <t>Boss</t>
   </si>
   <si>
-    <t>Elite</t>
+    <t>Eli1te</t>
   </si>
   <si>
     <t>精英怪</t>
@@ -102,7 +102,7 @@
     <t>Medium</t>
   </si>
   <si>
-    <t>中型怪</t>
+    <t>中型怪1</t>
   </si>
   <si>
     <t>Small</t>
@@ -111,7 +111,7 @@
     <t>小型怪</t>
   </si>
   <si>
-    <t>Gameplay_State</t>
+    <t>Gamepsslay_State</t>
   </si>
   <si>
     <t>游戏内_状态</t>
@@ -159,7 +159,7 @@
     <t>Boss战_终战</t>
   </si>
   <si>
-    <t>M1</t>
+    <t>M3</t>
   </si>
   <si>
     <t>状态1</t>
@@ -1181,8 +1181,8 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelCol="3"/>
@@ -1395,8 +1395,8 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="3"/>
